--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H2">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>70.91713623007929</v>
+        <v>9.688363000000001</v>
       </c>
       <c r="N2">
-        <v>70.91713623007929</v>
+        <v>29.065089</v>
       </c>
       <c r="O2">
-        <v>0.873329888459073</v>
+        <v>0.1053077753334822</v>
       </c>
       <c r="P2">
-        <v>0.873329888459073</v>
+        <v>0.1053077753334822</v>
       </c>
       <c r="Q2">
-        <v>1488.11783423599</v>
+        <v>1268.747608317927</v>
       </c>
       <c r="R2">
-        <v>1488.11783423599</v>
+        <v>11418.72847486134</v>
       </c>
       <c r="S2">
-        <v>0.1495406765528133</v>
+        <v>0.05619787244959135</v>
       </c>
       <c r="T2">
-        <v>0.1495406765528133</v>
+        <v>0.05619787244959135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H3">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2860118211198</v>
+        <v>71.80093133333332</v>
       </c>
       <c r="N3">
-        <v>10.2860118211198</v>
+        <v>215.402794</v>
       </c>
       <c r="O3">
-        <v>0.126670111540927</v>
+        <v>0.7804410658008428</v>
       </c>
       <c r="P3">
-        <v>0.126670111540927</v>
+        <v>0.7804410658008428</v>
       </c>
       <c r="Q3">
-        <v>215.8406056402241</v>
+        <v>9402.75048572874</v>
       </c>
       <c r="R3">
-        <v>215.8406056402241</v>
+        <v>84624.75437155867</v>
       </c>
       <c r="S3">
-        <v>0.02168978118025128</v>
+        <v>0.4164851771999596</v>
       </c>
       <c r="T3">
-        <v>0.02168978118025128</v>
+        <v>0.4164851771999596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.8931665002294</v>
+        <v>130.955829</v>
       </c>
       <c r="H4">
-        <v>65.8931665002294</v>
+        <v>392.867487</v>
       </c>
       <c r="I4">
-        <v>0.5376940910870729</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J4">
-        <v>0.5376940910870729</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.91713623007929</v>
+        <v>10.51115833333333</v>
       </c>
       <c r="N4">
-        <v>70.91713623007929</v>
+        <v>31.533475</v>
       </c>
       <c r="O4">
-        <v>0.873329888459073</v>
+        <v>0.1142511588656749</v>
       </c>
       <c r="P4">
-        <v>0.873329888459073</v>
+        <v>0.1142511588656749</v>
       </c>
       <c r="Q4">
-        <v>4672.954665328066</v>
+        <v>1376.497453291925</v>
       </c>
       <c r="R4">
-        <v>4672.954665328066</v>
+        <v>12388.47707962733</v>
       </c>
       <c r="S4">
-        <v>0.469584320594176</v>
+        <v>0.06097054118576336</v>
       </c>
       <c r="T4">
-        <v>0.469584320594176</v>
+        <v>0.06097054118576336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>10.2860118211198</v>
+        <v>9.688363000000001</v>
       </c>
       <c r="N5">
-        <v>10.2860118211198</v>
+        <v>29.065089</v>
       </c>
       <c r="O5">
-        <v>0.126670111540927</v>
+        <v>0.1053077753334822</v>
       </c>
       <c r="P5">
-        <v>0.126670111540927</v>
+        <v>0.1053077753334822</v>
       </c>
       <c r="Q5">
-        <v>677.7778895523747</v>
+        <v>643.26283361383</v>
       </c>
       <c r="R5">
-        <v>677.7778895523747</v>
+        <v>5789.36550252447</v>
       </c>
       <c r="S5">
-        <v>0.0681097704928969</v>
+        <v>0.02849266665646721</v>
       </c>
       <c r="T5">
-        <v>0.0681097704928969</v>
+        <v>0.02849266665646721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.6706229185958</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
-        <v>35.6706229185958</v>
+        <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2910754511798626</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J6">
-        <v>0.2910754511798626</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.91713623007929</v>
+        <v>71.80093133333332</v>
       </c>
       <c r="N6">
-        <v>70.91713623007929</v>
+        <v>215.402794</v>
       </c>
       <c r="O6">
-        <v>0.873329888459073</v>
+        <v>0.7804410658008428</v>
       </c>
       <c r="P6">
-        <v>0.873329888459073</v>
+        <v>0.7804410658008428</v>
       </c>
       <c r="Q6">
-        <v>2529.658424929847</v>
+        <v>4767.252274258512</v>
       </c>
       <c r="R6">
-        <v>2529.658424929847</v>
+        <v>42905.27046832661</v>
       </c>
       <c r="S6">
-        <v>0.2542048913120837</v>
+        <v>0.2111605440572941</v>
       </c>
       <c r="T6">
-        <v>0.2542048913120837</v>
+        <v>0.2111605440572941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.6706229185958</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
-        <v>35.6706229185958</v>
+        <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2910754511798626</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J7">
-        <v>0.2910754511798626</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.2860118211198</v>
+        <v>10.51115833333333</v>
       </c>
       <c r="N7">
-        <v>10.2860118211198</v>
+        <v>31.533475</v>
       </c>
       <c r="O7">
-        <v>0.126670111540927</v>
+        <v>0.1142511588656749</v>
       </c>
       <c r="P7">
-        <v>0.126670111540927</v>
+        <v>0.1142511588656749</v>
       </c>
       <c r="Q7">
-        <v>366.9084490073832</v>
+        <v>697.8926671165834</v>
       </c>
       <c r="R7">
-        <v>366.9084490073832</v>
+        <v>6281.03400404925</v>
       </c>
       <c r="S7">
-        <v>0.03687055986777885</v>
+        <v>0.03091243903278749</v>
       </c>
       <c r="T7">
-        <v>0.03687055986777885</v>
+        <v>0.03091243903278749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>48.043585</v>
+      </c>
+      <c r="H8">
+        <v>144.130755</v>
+      </c>
+      <c r="I8">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="J8">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>9.688363000000001</v>
+      </c>
+      <c r="N8">
+        <v>29.065089</v>
+      </c>
+      <c r="O8">
+        <v>0.1053077753334822</v>
+      </c>
+      <c r="P8">
+        <v>0.1053077753334822</v>
+      </c>
+      <c r="Q8">
+        <v>465.463691301355</v>
+      </c>
+      <c r="R8">
+        <v>4189.173221712195</v>
+      </c>
+      <c r="S8">
+        <v>0.02061723622742368</v>
+      </c>
+      <c r="T8">
+        <v>0.02061723622742368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>48.043585</v>
+      </c>
+      <c r="H9">
+        <v>144.130755</v>
+      </c>
+      <c r="I9">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="J9">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>71.80093133333332</v>
+      </c>
+      <c r="N9">
+        <v>215.402794</v>
+      </c>
+      <c r="O9">
+        <v>0.7804410658008428</v>
+      </c>
+      <c r="P9">
+        <v>0.7804410658008428</v>
+      </c>
+      <c r="Q9">
+        <v>3449.574147592163</v>
+      </c>
+      <c r="R9">
+        <v>31046.16732832947</v>
+      </c>
+      <c r="S9">
+        <v>0.152795344543589</v>
+      </c>
+      <c r="T9">
+        <v>0.152795344543589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>48.043585</v>
+      </c>
+      <c r="H10">
+        <v>144.130755</v>
+      </c>
+      <c r="I10">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="J10">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.51115833333333</v>
+      </c>
+      <c r="N10">
+        <v>31.533475</v>
+      </c>
+      <c r="O10">
+        <v>0.1142511588656749</v>
+      </c>
+      <c r="P10">
+        <v>0.1142511588656749</v>
+      </c>
+      <c r="Q10">
+        <v>504.9937288359584</v>
+      </c>
+      <c r="R10">
+        <v>4544.943559523625</v>
+      </c>
+      <c r="S10">
+        <v>0.02236817864712401</v>
+      </c>
+      <c r="T10">
+        <v>0.02236817864712401</v>
       </c>
     </row>
   </sheetData>
